--- a/文档/测试工作相关/IT端到端测试相关/测试模板_edit.xlsx
+++ b/文档/测试工作相关/IT端到端测试相关/测试模板_edit.xlsx
@@ -162,17 +162,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">WMZ2019112100510269
 设备号： IP2019112007
 客户标识：400000065124
 在WOP里已回单
 2-30237736379
 设备号：IP2019004747
+WMZ2019112800512635
+IP2019110027
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2534,8 +2536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2645,10 +2647,10 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="7"/>
